--- a/Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E795A-D6E0-4B91-88FA-81B5E8D91E93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,36 +743,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58602200</v>
+        <v>59803000</v>
       </c>
       <c r="E8" s="3">
-        <v>36104500</v>
+        <v>36844300</v>
       </c>
       <c r="F8" s="3">
-        <v>57859600</v>
+        <v>59045200</v>
       </c>
       <c r="G8" s="3">
-        <v>29774000</v>
+        <v>30384100</v>
       </c>
       <c r="H8" s="3">
-        <v>49258000</v>
+        <v>50267400</v>
       </c>
       <c r="I8" s="3">
-        <v>25656000</v>
+        <v>26181800</v>
       </c>
       <c r="J8" s="3">
-        <v>48189000</v>
+        <v>49176400</v>
       </c>
       <c r="K8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,7 +843,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,36 +901,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>184400</v>
+        <v>188200</v>
       </c>
       <c r="E14" s="3">
-        <v>155600</v>
+        <v>158800</v>
       </c>
       <c r="F14" s="3">
-        <v>245300</v>
+        <v>250400</v>
       </c>
       <c r="G14" s="3">
-        <v>245300</v>
+        <v>250400</v>
       </c>
       <c r="H14" s="3">
-        <v>140900</v>
+        <v>143800</v>
       </c>
       <c r="I14" s="3">
-        <v>41200</v>
+        <v>42000</v>
       </c>
       <c r="J14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,65 +969,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55775200</v>
+        <v>56918100</v>
       </c>
       <c r="E17" s="3">
-        <v>32562100</v>
+        <v>33229300</v>
       </c>
       <c r="F17" s="3">
-        <v>55711500</v>
+        <v>56853100</v>
       </c>
       <c r="G17" s="3">
-        <v>28490300</v>
+        <v>29074100</v>
       </c>
       <c r="H17" s="3">
-        <v>47232600</v>
+        <v>48200500</v>
       </c>
       <c r="I17" s="3">
-        <v>24656800</v>
+        <v>25162000</v>
       </c>
       <c r="J17" s="3">
-        <v>42167300</v>
+        <v>43031300</v>
       </c>
       <c r="K17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2827000</v>
+        <v>2884900</v>
       </c>
       <c r="E18" s="3">
-        <v>3542400</v>
+        <v>3615000</v>
       </c>
       <c r="F18" s="3">
-        <v>2148100</v>
+        <v>2192200</v>
       </c>
       <c r="G18" s="3">
-        <v>1283700</v>
+        <v>1310000</v>
       </c>
       <c r="H18" s="3">
-        <v>2025400</v>
+        <v>2066900</v>
       </c>
       <c r="I18" s="3">
-        <v>999200</v>
+        <v>1019700</v>
       </c>
       <c r="J18" s="3">
-        <v>6021700</v>
+        <v>6145100</v>
       </c>
       <c r="K18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,65 +1040,65 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>292000</v>
+        <v>298000</v>
       </c>
       <c r="E20" s="3">
-        <v>201300</v>
+        <v>205400</v>
       </c>
       <c r="F20" s="3">
-        <v>168400</v>
+        <v>171900</v>
       </c>
       <c r="G20" s="3">
-        <v>259900</v>
+        <v>265200</v>
       </c>
       <c r="H20" s="3">
-        <v>-101700</v>
+        <v>-103700</v>
       </c>
       <c r="I20" s="3">
-        <v>-316700</v>
+        <v>-323200</v>
       </c>
       <c r="J20" s="3">
-        <v>-24400</v>
+        <v>-24900</v>
       </c>
       <c r="K20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3302600</v>
+        <v>3370200</v>
       </c>
       <c r="E21" s="3">
-        <v>3751800</v>
+        <v>3828700</v>
       </c>
       <c r="F21" s="3">
-        <v>2475400</v>
+        <v>2526100</v>
       </c>
       <c r="G21" s="3">
-        <v>1545200</v>
+        <v>1576900</v>
       </c>
       <c r="H21" s="3">
-        <v>2074400</v>
+        <v>2116900</v>
       </c>
       <c r="I21" s="3">
-        <v>680500</v>
+        <v>694400</v>
       </c>
       <c r="J21" s="3">
-        <v>6146300</v>
+        <v>6272300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,65 +1127,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3119000</v>
+        <v>3182900</v>
       </c>
       <c r="E23" s="3">
-        <v>3743700</v>
+        <v>3820400</v>
       </c>
       <c r="F23" s="3">
-        <v>2316600</v>
+        <v>2364000</v>
       </c>
       <c r="G23" s="3">
-        <v>1543600</v>
+        <v>1575200</v>
       </c>
       <c r="H23" s="3">
-        <v>1923700</v>
+        <v>1963200</v>
       </c>
       <c r="I23" s="3">
-        <v>682500</v>
+        <v>696500</v>
       </c>
       <c r="J23" s="3">
-        <v>5997200</v>
+        <v>6120100</v>
       </c>
       <c r="K23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>689900</v>
+        <v>704100</v>
       </c>
       <c r="E24" s="3">
-        <v>797200</v>
+        <v>813600</v>
       </c>
       <c r="F24" s="3">
-        <v>499800</v>
+        <v>510100</v>
       </c>
       <c r="G24" s="3">
-        <v>243700</v>
+        <v>248700</v>
       </c>
       <c r="H24" s="3">
-        <v>375400</v>
+        <v>383000</v>
       </c>
       <c r="I24" s="3">
-        <v>180300</v>
+        <v>184000</v>
       </c>
       <c r="J24" s="3">
-        <v>1382200</v>
+        <v>1410500</v>
       </c>
       <c r="K24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,65 +1214,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2429100</v>
+        <v>2478900</v>
       </c>
       <c r="E26" s="3">
-        <v>2946400</v>
+        <v>3006800</v>
       </c>
       <c r="F26" s="3">
-        <v>1816700</v>
+        <v>1853900</v>
       </c>
       <c r="G26" s="3">
-        <v>1299900</v>
+        <v>1326500</v>
       </c>
       <c r="H26" s="3">
-        <v>1548400</v>
+        <v>1580100</v>
       </c>
       <c r="I26" s="3">
-        <v>502200</v>
+        <v>512500</v>
       </c>
       <c r="J26" s="3">
-        <v>4615100</v>
+        <v>4709600</v>
       </c>
       <c r="K26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="E27" s="3">
-        <v>2910200</v>
+        <v>2969800</v>
       </c>
       <c r="F27" s="3">
-        <v>1780400</v>
+        <v>1816800</v>
       </c>
       <c r="G27" s="3">
-        <v>1269900</v>
+        <v>1295900</v>
       </c>
       <c r="H27" s="3">
-        <v>1511700</v>
+        <v>1542700</v>
       </c>
       <c r="I27" s="3">
-        <v>466800</v>
+        <v>476400</v>
       </c>
       <c r="J27" s="3">
-        <v>4579400</v>
+        <v>4673300</v>
       </c>
       <c r="K27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,65 +1388,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-292000</v>
+        <v>-298000</v>
       </c>
       <c r="E32" s="3">
-        <v>-201300</v>
+        <v>-205400</v>
       </c>
       <c r="F32" s="3">
-        <v>-168400</v>
+        <v>-171900</v>
       </c>
       <c r="G32" s="3">
-        <v>-259900</v>
+        <v>-265200</v>
       </c>
       <c r="H32" s="3">
-        <v>101700</v>
+        <v>103700</v>
       </c>
       <c r="I32" s="3">
-        <v>316700</v>
+        <v>323200</v>
       </c>
       <c r="J32" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="K32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="E33" s="3">
-        <v>2910200</v>
+        <v>2969800</v>
       </c>
       <c r="F33" s="3">
-        <v>1780400</v>
+        <v>1816800</v>
       </c>
       <c r="G33" s="3">
-        <v>1269900</v>
+        <v>1295900</v>
       </c>
       <c r="H33" s="3">
-        <v>1511700</v>
+        <v>1542700</v>
       </c>
       <c r="I33" s="3">
-        <v>466800</v>
+        <v>476400</v>
       </c>
       <c r="J33" s="3">
-        <v>4579400</v>
+        <v>4673300</v>
       </c>
       <c r="K33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,41 +1475,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="E35" s="3">
-        <v>2910200</v>
+        <v>2969800</v>
       </c>
       <c r="F35" s="3">
-        <v>1780400</v>
+        <v>1816800</v>
       </c>
       <c r="G35" s="3">
-        <v>1269900</v>
+        <v>1295900</v>
       </c>
       <c r="H35" s="3">
-        <v>1511700</v>
+        <v>1542700</v>
       </c>
       <c r="I35" s="3">
-        <v>466800</v>
+        <v>476400</v>
       </c>
       <c r="J35" s="3">
-        <v>4579400</v>
+        <v>4673300</v>
       </c>
       <c r="K35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,7 +1551,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,36 +1564,36 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8431000</v>
+        <v>8603800</v>
       </c>
       <c r="E41" s="3">
-        <v>7065900</v>
+        <v>7210600</v>
       </c>
       <c r="F41" s="3">
-        <v>6768700</v>
+        <v>6907400</v>
       </c>
       <c r="G41" s="3">
-        <v>9360500</v>
+        <v>9552300</v>
       </c>
       <c r="H41" s="3">
-        <v>10444600</v>
+        <v>10658700</v>
       </c>
       <c r="I41" s="3">
-        <v>10781500</v>
+        <v>11002400</v>
       </c>
       <c r="J41" s="3">
-        <v>10749900</v>
+        <v>10970200</v>
       </c>
       <c r="K41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,36 +1622,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5492700</v>
+        <v>5605300</v>
       </c>
       <c r="E43" s="3">
-        <v>2053600</v>
+        <v>2095700</v>
       </c>
       <c r="F43" s="3">
-        <v>4474400</v>
+        <v>4566100</v>
       </c>
       <c r="G43" s="3">
-        <v>1951800</v>
+        <v>1991800</v>
       </c>
       <c r="H43" s="3">
-        <v>4012700</v>
+        <v>4094900</v>
       </c>
       <c r="I43" s="3">
-        <v>1732500</v>
+        <v>1768000</v>
       </c>
       <c r="J43" s="3">
-        <v>3331800</v>
+        <v>3400100</v>
       </c>
       <c r="K43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1703,65 +1738,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>408906100</v>
+        <v>417285000</v>
       </c>
       <c r="E47" s="3">
-        <v>391954400</v>
+        <v>399985900</v>
       </c>
       <c r="F47" s="3">
-        <v>387565000</v>
+        <v>395506600</v>
       </c>
       <c r="G47" s="3">
-        <v>363743800</v>
+        <v>371197300</v>
       </c>
       <c r="H47" s="3">
-        <v>345983600</v>
+        <v>353073200</v>
       </c>
       <c r="I47" s="3">
-        <v>327669600</v>
+        <v>334383900</v>
       </c>
       <c r="J47" s="3">
-        <v>316852100</v>
+        <v>323344700</v>
       </c>
       <c r="K47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7402800</v>
+        <v>7554500</v>
       </c>
       <c r="E48" s="3">
-        <v>6656500</v>
+        <v>6792900</v>
       </c>
       <c r="F48" s="3">
-        <v>5765000</v>
+        <v>5883100</v>
       </c>
       <c r="G48" s="3">
-        <v>4592700</v>
+        <v>4686800</v>
       </c>
       <c r="H48" s="3">
-        <v>4144000</v>
+        <v>4228900</v>
       </c>
       <c r="I48" s="3">
-        <v>4102700</v>
+        <v>4186800</v>
       </c>
       <c r="J48" s="3">
-        <v>3846600</v>
+        <v>3925400</v>
       </c>
       <c r="K48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,7 +1825,7 @@
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,36 +1941,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>442569400</v>
+        <v>451638000</v>
       </c>
       <c r="E54" s="3">
-        <v>421396700</v>
+        <v>430031500</v>
       </c>
       <c r="F54" s="3">
-        <v>418124600</v>
+        <v>426692400</v>
       </c>
       <c r="G54" s="3">
-        <v>392217600</v>
+        <v>400254500</v>
       </c>
       <c r="H54" s="3">
-        <v>376525000</v>
+        <v>384240300</v>
       </c>
       <c r="I54" s="3">
-        <v>356058500</v>
+        <v>363354400</v>
       </c>
       <c r="J54" s="3">
-        <v>346058700</v>
+        <v>353149800</v>
       </c>
       <c r="K54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +1983,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,7 +1996,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,36 +2054,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>374327500</v>
+        <v>381997800</v>
       </c>
       <c r="E59" s="3">
-        <v>354816800</v>
+        <v>362087300</v>
       </c>
       <c r="F59" s="3">
-        <v>352880100</v>
+        <v>360110900</v>
       </c>
       <c r="G59" s="3">
-        <v>325389900</v>
+        <v>332057400</v>
       </c>
       <c r="H59" s="3">
-        <v>308317600</v>
+        <v>314635300</v>
       </c>
       <c r="I59" s="3">
-        <v>287490700</v>
+        <v>293381600</v>
       </c>
       <c r="J59" s="3">
-        <v>279323200</v>
+        <v>285046800</v>
       </c>
       <c r="K59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,65 +2112,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2844200</v>
+        <v>2902500</v>
       </c>
       <c r="E61" s="3">
-        <v>2733200</v>
+        <v>2789200</v>
       </c>
       <c r="F61" s="3">
-        <v>3801100</v>
+        <v>3879000</v>
       </c>
       <c r="G61" s="3">
-        <v>7877700</v>
+        <v>8039100</v>
       </c>
       <c r="H61" s="3">
-        <v>10245300</v>
+        <v>10455200</v>
       </c>
       <c r="I61" s="3">
-        <v>10272700</v>
+        <v>10483200</v>
       </c>
       <c r="J61" s="3">
-        <v>10273500</v>
+        <v>10484000</v>
       </c>
       <c r="K61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>453900</v>
+        <v>463200</v>
       </c>
       <c r="E62" s="3">
-        <v>708400</v>
+        <v>722900</v>
       </c>
       <c r="F62" s="3">
-        <v>1370800</v>
+        <v>1398900</v>
       </c>
       <c r="G62" s="3">
-        <v>1129700</v>
+        <v>1152800</v>
       </c>
       <c r="H62" s="3">
-        <v>1671700</v>
+        <v>1706000</v>
       </c>
       <c r="I62" s="3">
-        <v>2465500</v>
+        <v>2516000</v>
       </c>
       <c r="J62" s="3">
-        <v>2782200</v>
+        <v>2839200</v>
       </c>
       <c r="K62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,36 +2257,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>395594300</v>
+        <v>403700400</v>
       </c>
       <c r="E66" s="3">
-        <v>374723400</v>
+        <v>382401800</v>
       </c>
       <c r="F66" s="3">
-        <v>373245700</v>
+        <v>380893800</v>
       </c>
       <c r="G66" s="3">
-        <v>348062000</v>
+        <v>355194100</v>
       </c>
       <c r="H66" s="3">
-        <v>332467200</v>
+        <v>339279800</v>
       </c>
       <c r="I66" s="3">
-        <v>309158400</v>
+        <v>315493400</v>
       </c>
       <c r="J66" s="3">
-        <v>300837700</v>
+        <v>307002100</v>
       </c>
       <c r="K66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,7 +2299,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,36 +2415,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41731400</v>
+        <v>42586500</v>
       </c>
       <c r="E72" s="3">
-        <v>41429700</v>
+        <v>42278600</v>
       </c>
       <c r="F72" s="3">
-        <v>39635300</v>
+        <v>40447500</v>
       </c>
       <c r="G72" s="3">
-        <v>38912000</v>
+        <v>39709300</v>
       </c>
       <c r="H72" s="3">
-        <v>38814100</v>
+        <v>39609400</v>
       </c>
       <c r="I72" s="3">
-        <v>41656400</v>
+        <v>42510000</v>
       </c>
       <c r="J72" s="3">
-        <v>41110400</v>
+        <v>41952800</v>
       </c>
       <c r="K72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,36 +2531,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46975100</v>
+        <v>47937600</v>
       </c>
       <c r="E76" s="3">
-        <v>46673300</v>
+        <v>47629700</v>
       </c>
       <c r="F76" s="3">
-        <v>44879000</v>
+        <v>45798600</v>
       </c>
       <c r="G76" s="3">
-        <v>44155600</v>
+        <v>45060400</v>
       </c>
       <c r="H76" s="3">
-        <v>44057700</v>
+        <v>44960500</v>
       </c>
       <c r="I76" s="3">
-        <v>46900000</v>
+        <v>47861000</v>
       </c>
       <c r="J76" s="3">
-        <v>45221000</v>
+        <v>46147600</v>
       </c>
       <c r="K76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,12 +2589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2588,36 +2623,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="E81" s="3">
-        <v>2910200</v>
+        <v>2969800</v>
       </c>
       <c r="F81" s="3">
-        <v>1780400</v>
+        <v>1816800</v>
       </c>
       <c r="G81" s="3">
-        <v>1269900</v>
+        <v>1295900</v>
       </c>
       <c r="H81" s="3">
-        <v>1511700</v>
+        <v>1542700</v>
       </c>
       <c r="I81" s="3">
-        <v>466800</v>
+        <v>476400</v>
       </c>
       <c r="J81" s="3">
-        <v>4579400</v>
+        <v>4673300</v>
       </c>
       <c r="K81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2665,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,36 +2839,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6423900</v>
+        <v>6555600</v>
       </c>
       <c r="E89" s="3">
-        <v>8449200</v>
+        <v>8622300</v>
       </c>
       <c r="F89" s="3">
-        <v>20780800</v>
+        <v>21206600</v>
       </c>
       <c r="G89" s="3">
-        <v>14874300</v>
+        <v>15179100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1916800</v>
+        <v>-1956000</v>
       </c>
       <c r="I89" s="3">
-        <v>-6363900</v>
+        <v>-6494300</v>
       </c>
       <c r="J89" s="3">
-        <v>3628200</v>
+        <v>3702500</v>
       </c>
       <c r="K89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,7 +2881,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,36 +2968,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5856300</v>
+        <v>-5976300</v>
       </c>
       <c r="E94" s="3">
-        <v>3318400</v>
+        <v>3386400</v>
       </c>
       <c r="F94" s="3">
-        <v>-28576100</v>
+        <v>-29161700</v>
       </c>
       <c r="G94" s="3">
-        <v>-16538400</v>
+        <v>-16877300</v>
       </c>
       <c r="H94" s="3">
-        <v>1311500</v>
+        <v>1338400</v>
       </c>
       <c r="I94" s="3">
-        <v>7638100</v>
+        <v>7794600</v>
       </c>
       <c r="J94" s="3">
-        <v>2112500</v>
+        <v>2155800</v>
       </c>
       <c r="K94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,36 +3010,36 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1238800</v>
+        <v>-1264200</v>
       </c>
       <c r="E96" s="3">
-        <v>-286800</v>
+        <v>-292700</v>
       </c>
       <c r="F96" s="3">
-        <v>-755100</v>
+        <v>-770500</v>
       </c>
       <c r="G96" s="3">
-        <v>-483100</v>
+        <v>-493000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1299400</v>
+        <v>-1326000</v>
       </c>
       <c r="I96" s="3">
-        <v>-459700</v>
+        <v>-469100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1211400</v>
+        <v>-1236300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,56 +3126,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>794300</v>
+        <v>810600</v>
       </c>
       <c r="E100" s="3">
-        <v>-11647600</v>
+        <v>-11886300</v>
       </c>
       <c r="F100" s="3">
-        <v>5016800</v>
+        <v>5119600</v>
       </c>
       <c r="G100" s="3">
-        <v>895400</v>
+        <v>913800</v>
       </c>
       <c r="H100" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1203900</v>
+        <v>-1228500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1619700</v>
+        <v>-1652800</v>
       </c>
       <c r="K100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="G101" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="H101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I101" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
@@ -3149,30 +3184,30 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1365200</v>
+        <v>1393100</v>
       </c>
       <c r="E102" s="3">
-        <v>109400</v>
+        <v>111600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2794000</v>
+        <v>-2851300</v>
       </c>
       <c r="G102" s="3">
-        <v>-735100</v>
+        <v>-750200</v>
       </c>
       <c r="H102" s="3">
-        <v>-581000</v>
+        <v>-592900</v>
       </c>
       <c r="I102" s="3">
-        <v>105700</v>
+        <v>107900</v>
       </c>
       <c r="J102" s="3">
-        <v>4120800</v>
+        <v>4205200</v>
       </c>
       <c r="K102" s="3">
         <v>559600</v>

--- a/Financials/Quarterly/LFC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/LFC_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E795A-D6E0-4B91-88FA-81B5E8D91E93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="LFC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,90 +654,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59803000</v>
+        <v>64793700</v>
       </c>
       <c r="E8" s="3">
-        <v>36844300</v>
+        <v>33382900</v>
       </c>
       <c r="F8" s="3">
-        <v>59045200</v>
+        <v>57816400</v>
       </c>
       <c r="G8" s="3">
-        <v>30384100</v>
+        <v>35620300</v>
       </c>
       <c r="H8" s="3">
-        <v>50267400</v>
+        <v>57083800</v>
       </c>
       <c r="I8" s="3">
+        <v>29374800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>48597500</v>
+      </c>
+      <c r="K8" s="3">
         <v>26181800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>49176400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>29124000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +777,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +812,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +831,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +862,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,37 +897,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>188200</v>
+        <v>483000</v>
       </c>
       <c r="E14" s="3">
-        <v>158800</v>
+        <v>995300</v>
       </c>
       <c r="F14" s="3">
-        <v>250400</v>
+        <v>181900</v>
       </c>
       <c r="G14" s="3">
-        <v>250400</v>
+        <v>153500</v>
       </c>
       <c r="H14" s="3">
-        <v>143800</v>
+        <v>242100</v>
       </c>
       <c r="I14" s="3">
+        <v>242100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K14" s="3">
         <v>42000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,8 +967,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -968,66 +983,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56918100</v>
+        <v>59749200</v>
       </c>
       <c r="E17" s="3">
-        <v>33229300</v>
+        <v>34695300</v>
       </c>
       <c r="F17" s="3">
-        <v>56853100</v>
+        <v>55027300</v>
       </c>
       <c r="G17" s="3">
-        <v>29074100</v>
+        <v>32125500</v>
       </c>
       <c r="H17" s="3">
-        <v>48200500</v>
+        <v>54964500</v>
       </c>
       <c r="I17" s="3">
+        <v>28108300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>46599300</v>
+      </c>
+      <c r="K17" s="3">
         <v>25162000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>43031300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26438300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2884900</v>
+        <v>5044500</v>
       </c>
       <c r="E18" s="3">
-        <v>3615000</v>
+        <v>-1312400</v>
       </c>
       <c r="F18" s="3">
-        <v>2192200</v>
+        <v>2789100</v>
       </c>
       <c r="G18" s="3">
-        <v>1310000</v>
+        <v>3494900</v>
       </c>
       <c r="H18" s="3">
-        <v>2066900</v>
+        <v>2119300</v>
       </c>
       <c r="I18" s="3">
+        <v>1266500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1998200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1019700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6145100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2685700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,66 +1068,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>298000</v>
+        <v>535900</v>
       </c>
       <c r="E20" s="3">
-        <v>205400</v>
+        <v>232600</v>
       </c>
       <c r="F20" s="3">
-        <v>171900</v>
+        <v>288100</v>
       </c>
       <c r="G20" s="3">
-        <v>265200</v>
+        <v>198600</v>
       </c>
       <c r="H20" s="3">
-        <v>-103700</v>
+        <v>166100</v>
       </c>
       <c r="I20" s="3">
+        <v>256400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-323200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-24900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-135100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3370200</v>
+        <v>5871600</v>
       </c>
       <c r="E21" s="3">
-        <v>3828700</v>
+        <v>-1063500</v>
       </c>
       <c r="F21" s="3">
-        <v>2526100</v>
+        <v>3258300</v>
       </c>
       <c r="G21" s="3">
-        <v>1576900</v>
+        <v>3701500</v>
       </c>
       <c r="H21" s="3">
-        <v>2116900</v>
+        <v>2442200</v>
       </c>
       <c r="I21" s="3">
+        <v>1524500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2046600</v>
+      </c>
+      <c r="K21" s="3">
         <v>694400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6272300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1126,66 +1169,84 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3182900</v>
+        <v>5580400</v>
       </c>
       <c r="E23" s="3">
-        <v>3820400</v>
+        <v>-1079800</v>
       </c>
       <c r="F23" s="3">
-        <v>2364000</v>
+        <v>3077200</v>
       </c>
       <c r="G23" s="3">
-        <v>1575200</v>
+        <v>3693500</v>
       </c>
       <c r="H23" s="3">
-        <v>1963200</v>
+        <v>2285500</v>
       </c>
       <c r="I23" s="3">
+        <v>1522900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="K23" s="3">
         <v>696500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6120100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2550600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>704100</v>
+        <v>138300</v>
       </c>
       <c r="E24" s="3">
-        <v>813600</v>
+        <v>-395900</v>
       </c>
       <c r="F24" s="3">
-        <v>510100</v>
+        <v>680700</v>
       </c>
       <c r="G24" s="3">
-        <v>248700</v>
+        <v>786600</v>
       </c>
       <c r="H24" s="3">
-        <v>383000</v>
+        <v>493100</v>
       </c>
       <c r="I24" s="3">
+        <v>240500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K24" s="3">
         <v>184000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1410500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>520300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,66 +1274,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2478900</v>
+        <v>5442100</v>
       </c>
       <c r="E26" s="3">
-        <v>3006800</v>
+        <v>-684000</v>
       </c>
       <c r="F26" s="3">
-        <v>1853900</v>
+        <v>2396500</v>
       </c>
       <c r="G26" s="3">
-        <v>1326500</v>
+        <v>2906900</v>
       </c>
       <c r="H26" s="3">
-        <v>1580100</v>
+        <v>1792400</v>
       </c>
       <c r="I26" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1527600</v>
+      </c>
+      <c r="K26" s="3">
         <v>512500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4709600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2030200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2437300</v>
+        <v>5394700</v>
       </c>
       <c r="E27" s="3">
-        <v>2969800</v>
+        <v>-721400</v>
       </c>
       <c r="F27" s="3">
-        <v>1816800</v>
+        <v>2356400</v>
       </c>
       <c r="G27" s="3">
-        <v>1295900</v>
+        <v>2871200</v>
       </c>
       <c r="H27" s="3">
-        <v>1542700</v>
+        <v>1756500</v>
       </c>
       <c r="I27" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K27" s="3">
         <v>476400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4673300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1300,8 +1379,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1329,8 +1414,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,8 +1449,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1387,66 +1484,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-298000</v>
+        <v>-535900</v>
       </c>
       <c r="E32" s="3">
-        <v>-205400</v>
+        <v>-232600</v>
       </c>
       <c r="F32" s="3">
-        <v>-171900</v>
+        <v>-288100</v>
       </c>
       <c r="G32" s="3">
-        <v>-265200</v>
+        <v>-198600</v>
       </c>
       <c r="H32" s="3">
-        <v>103700</v>
+        <v>-166100</v>
       </c>
       <c r="I32" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K32" s="3">
         <v>323200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>24900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2437300</v>
+        <v>5394700</v>
       </c>
       <c r="E33" s="3">
-        <v>2969800</v>
+        <v>-721400</v>
       </c>
       <c r="F33" s="3">
-        <v>1816800</v>
+        <v>2356400</v>
       </c>
       <c r="G33" s="3">
-        <v>1295900</v>
+        <v>2871200</v>
       </c>
       <c r="H33" s="3">
-        <v>1542700</v>
+        <v>1756500</v>
       </c>
       <c r="I33" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K33" s="3">
         <v>476400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4673300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1474,71 +1589,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2437300</v>
+        <v>5394700</v>
       </c>
       <c r="E35" s="3">
-        <v>2969800</v>
+        <v>-721400</v>
       </c>
       <c r="F35" s="3">
-        <v>1816800</v>
+        <v>2356400</v>
       </c>
       <c r="G35" s="3">
-        <v>1295900</v>
+        <v>2871200</v>
       </c>
       <c r="H35" s="3">
-        <v>1542700</v>
+        <v>1756500</v>
       </c>
       <c r="I35" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K35" s="3">
         <v>476400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4673300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1683,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,37 +1698,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8603800</v>
+        <v>8042900</v>
       </c>
       <c r="E41" s="3">
-        <v>7210600</v>
+        <v>7287600</v>
       </c>
       <c r="F41" s="3">
-        <v>6907400</v>
+        <v>8318000</v>
       </c>
       <c r="G41" s="3">
-        <v>9552300</v>
+        <v>6971100</v>
       </c>
       <c r="H41" s="3">
-        <v>10658700</v>
+        <v>6678000</v>
       </c>
       <c r="I41" s="3">
+        <v>9234900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10304600</v>
+      </c>
+      <c r="K41" s="3">
         <v>11002400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10970200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6840200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,37 +1764,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5605300</v>
+        <v>5984600</v>
       </c>
       <c r="E43" s="3">
-        <v>2095700</v>
+        <v>2245200</v>
       </c>
       <c r="F43" s="3">
-        <v>4566100</v>
+        <v>5419100</v>
       </c>
       <c r="G43" s="3">
-        <v>1991800</v>
+        <v>2026100</v>
       </c>
       <c r="H43" s="3">
-        <v>4094900</v>
+        <v>4414400</v>
       </c>
       <c r="I43" s="3">
+        <v>1925600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3958900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1768000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3400100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2320200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,8 +1834,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1708,8 +1869,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1737,95 +1904,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>417285000</v>
+        <v>463719800</v>
       </c>
       <c r="E47" s="3">
-        <v>399985900</v>
+        <v>435769100</v>
       </c>
       <c r="F47" s="3">
-        <v>395506600</v>
+        <v>403423300</v>
       </c>
       <c r="G47" s="3">
-        <v>371197300</v>
+        <v>386698800</v>
       </c>
       <c r="H47" s="3">
-        <v>353073200</v>
+        <v>382368300</v>
       </c>
       <c r="I47" s="3">
+        <v>358866600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>341344500</v>
+      </c>
+      <c r="K47" s="3">
         <v>334383900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>323344700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>304751500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7554500</v>
+        <v>8738400</v>
       </c>
       <c r="E48" s="3">
-        <v>6792900</v>
+        <v>8182400</v>
       </c>
       <c r="F48" s="3">
-        <v>5883100</v>
+        <v>7303600</v>
       </c>
       <c r="G48" s="3">
-        <v>4686800</v>
+        <v>6567200</v>
       </c>
       <c r="H48" s="3">
-        <v>4228900</v>
+        <v>5687700</v>
       </c>
       <c r="I48" s="3">
+        <v>4531100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4088500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4186800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3925400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3872900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>892500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1853,8 +2044,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1882,37 +2079,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>180400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1940,37 +2149,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>451638000</v>
+        <v>499290300</v>
       </c>
       <c r="E54" s="3">
-        <v>430031500</v>
+        <v>466941700</v>
       </c>
       <c r="F54" s="3">
-        <v>426692400</v>
+        <v>436635200</v>
       </c>
       <c r="G54" s="3">
-        <v>400254500</v>
+        <v>415746400</v>
       </c>
       <c r="H54" s="3">
-        <v>384240300</v>
+        <v>412518200</v>
       </c>
       <c r="I54" s="3">
+        <v>386958500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>371476300</v>
+      </c>
+      <c r="K54" s="3">
         <v>363354400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>353149800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>326718200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1982,8 +2203,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1995,8 +2218,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2024,8 +2249,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2053,37 +2284,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>381997800</v>
+        <v>416149000</v>
       </c>
       <c r="E59" s="3">
-        <v>362087300</v>
+        <v>399326600</v>
       </c>
       <c r="F59" s="3">
-        <v>360110900</v>
+        <v>369308300</v>
       </c>
       <c r="G59" s="3">
-        <v>332057400</v>
+        <v>350059200</v>
       </c>
       <c r="H59" s="3">
-        <v>314635300</v>
+        <v>348148500</v>
       </c>
       <c r="I59" s="3">
+        <v>321026900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>304183500</v>
+      </c>
+      <c r="K59" s="3">
         <v>293381600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>285046800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>265630400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2111,66 +2354,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2902500</v>
+        <v>8277200</v>
       </c>
       <c r="E61" s="3">
-        <v>2789200</v>
+        <v>2891100</v>
       </c>
       <c r="F61" s="3">
-        <v>3879000</v>
+        <v>2806000</v>
       </c>
       <c r="G61" s="3">
-        <v>8039100</v>
+        <v>2696600</v>
       </c>
       <c r="H61" s="3">
-        <v>10455200</v>
+        <v>3750100</v>
       </c>
       <c r="I61" s="3">
+        <v>7772000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10107900</v>
+      </c>
+      <c r="K61" s="3">
         <v>10483200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10484000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10269100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>463200</v>
+        <v>1192600</v>
       </c>
       <c r="E62" s="3">
-        <v>722900</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1398900</v>
+        <v>447800</v>
       </c>
       <c r="G62" s="3">
-        <v>1152800</v>
+        <v>698900</v>
       </c>
       <c r="H62" s="3">
-        <v>1706000</v>
+        <v>1352400</v>
       </c>
       <c r="I62" s="3">
+        <v>1114600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1649300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2516000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2839200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2817700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2198,8 +2459,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2227,8 +2494,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2256,37 +2529,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>403700400</v>
+        <v>446427400</v>
       </c>
       <c r="E66" s="3">
-        <v>382401800</v>
+        <v>421261900</v>
       </c>
       <c r="F66" s="3">
-        <v>380893800</v>
+        <v>390290000</v>
       </c>
       <c r="G66" s="3">
-        <v>355194100</v>
+        <v>369698900</v>
       </c>
       <c r="H66" s="3">
-        <v>339279800</v>
+        <v>368241000</v>
       </c>
       <c r="I66" s="3">
+        <v>343395000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>328009300</v>
+      </c>
+      <c r="K66" s="3">
         <v>315493400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>307002100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>285398500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2298,8 +2583,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2327,8 +2614,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2356,8 +2649,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2385,8 +2684,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2414,37 +2719,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42586500</v>
+        <v>47689600</v>
       </c>
       <c r="E72" s="3">
-        <v>42278600</v>
+        <v>40506600</v>
       </c>
       <c r="F72" s="3">
-        <v>40447500</v>
+        <v>41171900</v>
       </c>
       <c r="G72" s="3">
-        <v>39709300</v>
+        <v>40874200</v>
       </c>
       <c r="H72" s="3">
-        <v>39609400</v>
+        <v>39103900</v>
       </c>
       <c r="I72" s="3">
+        <v>38390200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>38293700</v>
+      </c>
+      <c r="K72" s="3">
         <v>42510000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>41952800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>26021600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2472,8 +2789,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2501,8 +2824,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2530,37 +2859,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47937600</v>
+        <v>52862900</v>
       </c>
       <c r="E76" s="3">
-        <v>47629700</v>
+        <v>45679900</v>
       </c>
       <c r="F76" s="3">
-        <v>45798600</v>
+        <v>46345200</v>
       </c>
       <c r="G76" s="3">
-        <v>45060400</v>
+        <v>46047500</v>
       </c>
       <c r="H76" s="3">
-        <v>44960500</v>
+        <v>44277200</v>
       </c>
       <c r="I76" s="3">
+        <v>43563500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>43467000</v>
+      </c>
+      <c r="K76" s="3">
         <v>47861000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>46147600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41319700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2588,71 +2929,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2437300</v>
+        <v>5394700</v>
       </c>
       <c r="E81" s="3">
-        <v>2969800</v>
+        <v>-721400</v>
       </c>
       <c r="F81" s="3">
-        <v>1816800</v>
+        <v>2356400</v>
       </c>
       <c r="G81" s="3">
-        <v>1295900</v>
+        <v>2871200</v>
       </c>
       <c r="H81" s="3">
-        <v>1542700</v>
+        <v>1756500</v>
       </c>
       <c r="I81" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K81" s="3">
         <v>476400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4673300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2007500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2664,8 +3023,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2693,8 +3054,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2722,8 +3089,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2751,8 +3124,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2780,8 +3159,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2809,8 +3194,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2838,37 +3229,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6555600</v>
+        <v>21563600</v>
       </c>
       <c r="E89" s="3">
-        <v>8622300</v>
+        <v>14833000</v>
       </c>
       <c r="F89" s="3">
-        <v>21206600</v>
+        <v>6337800</v>
       </c>
       <c r="G89" s="3">
-        <v>15179100</v>
+        <v>8335900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1956000</v>
+        <v>20502100</v>
       </c>
       <c r="I89" s="3">
+        <v>14674800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1891100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6494300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3702500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5493800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2880,8 +3283,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2909,8 +3314,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2938,8 +3349,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2967,37 +3384,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5976300</v>
+        <v>-10891300</v>
       </c>
       <c r="E94" s="3">
-        <v>3386400</v>
+        <v>-28424000</v>
       </c>
       <c r="F94" s="3">
-        <v>-29161700</v>
+        <v>-5777800</v>
       </c>
       <c r="G94" s="3">
-        <v>-16877300</v>
+        <v>3273900</v>
       </c>
       <c r="H94" s="3">
-        <v>1338400</v>
+        <v>-28193000</v>
       </c>
       <c r="I94" s="3">
+        <v>-16316700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1293900</v>
+      </c>
+      <c r="K94" s="3">
         <v>7794600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2155800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1073900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3009,37 +3438,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1264200</v>
+        <v>-506100</v>
       </c>
       <c r="E96" s="3">
-        <v>-292700</v>
+        <v>-455100</v>
       </c>
       <c r="F96" s="3">
-        <v>-770500</v>
+        <v>-1222200</v>
       </c>
       <c r="G96" s="3">
-        <v>-493000</v>
+        <v>-282900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1326000</v>
+        <v>-744900</v>
       </c>
       <c r="I96" s="3">
+        <v>-476600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1282000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-469100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1236300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3067,8 +3504,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3096,8 +3539,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3125,91 +3574,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>810600</v>
+        <v>-9747600</v>
       </c>
       <c r="E100" s="3">
-        <v>-11886300</v>
+        <v>12554600</v>
       </c>
       <c r="F100" s="3">
-        <v>5119600</v>
+        <v>783700</v>
       </c>
       <c r="G100" s="3">
-        <v>913800</v>
+        <v>-11491500</v>
       </c>
       <c r="H100" s="3">
-        <v>16800</v>
+        <v>4949500</v>
       </c>
       <c r="I100" s="3">
+        <v>883400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1228500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1652800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3859600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-10800</v>
+        <v>8500</v>
       </c>
       <c r="F101" s="3">
-        <v>-15700</v>
+        <v>3200</v>
       </c>
       <c r="G101" s="3">
-        <v>34300</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>-15200</v>
       </c>
       <c r="I101" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K101" s="3">
         <v>36100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1393100</v>
+        <v>925400</v>
       </c>
       <c r="E102" s="3">
-        <v>111600</v>
+        <v>-1027900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2851300</v>
+        <v>1346800</v>
       </c>
       <c r="G102" s="3">
-        <v>-750200</v>
+        <v>107900</v>
       </c>
       <c r="H102" s="3">
-        <v>-592900</v>
+        <v>-2756500</v>
       </c>
       <c r="I102" s="3">
+        <v>-725300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-573200</v>
+      </c>
+      <c r="K102" s="3">
         <v>107900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4205200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>559600</v>
       </c>
     </row>
